--- a/data/hotels_by_city/Houston/Houston_shard_625.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_625.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d266125-Reviews-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
   </si>
   <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Super-8-By-Wyndham-Houston-Hobby-Airport-North.h908672.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1545 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r602184179-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>266125</t>
+  </si>
+  <si>
+    <t>602184179</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Dirty dirty</t>
+  </si>
+  <si>
+    <t>Bedspread stain as well as chair and couch. Towels were rough and stain. No microwave and when they  brought one it didn't work. Staff hanging around in lobby.. Breakfast was a mess. No Milk for cereal. No hot water. Waffle iron broken. No one was there to clean. A lamp was all rusty on side of bed table. No working pool. Very bad experience in this motel. No restaurant within walking distance.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r599408832-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599408832</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Do NOT stay here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The breakfast is practically non-existent. Warm milk in a sad container and dry cereal. We skipped the pathetic breakfast and went to mcdonalds instead. They dont clean your towels or bedsheets, even when you leave the </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r585642466-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585642466</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Convenient and comfortable</t>
+  </si>
+  <si>
+    <t>The property is perfectly located across the street from car rental companies and airport. Rooms are large but there is some updating. Covers and towels had stains on them. Would only come back for short stays. 1-2 days.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r579190138-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579190138</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Check the state of your Room</t>
+  </si>
+  <si>
+    <t>This hotel was flooded during hurricane Harvey.  Even though 6 to 7 months has passed, there is still work needed.  I asked for a wake up call AND set the clock in the room.  Neither worked.  I was an hour late in waking.  Thank goodness this location is DIRECTLY across the street from Hobby Airport and I was able to make my very EARLY flight.  The early morning staff (a guy) was not very pleasant to deal with.  The night girl was EXTREMELY friendly &amp; helpful.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r578749219-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578749219</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the price it was ok </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s close to the airport an close to downtown . The lights in the room didn’t work to sell an no maid service ever also there elevator was broken dude to a flood. There parking lots was a little flood as well </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r575960259-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575960259</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Fabulous</t>
+  </si>
+  <si>
+    <t>The girl at the desk was simply fabulous.  I needed to print boarding passes or be charged $20, and she went out of her way to ensure it was done,  just wow.  Thanks so much. I'm not sure what her name was and can't find it,  but I hope the company researches it and promotes her or gives her a significant pay raise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r572032287-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572032287</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Great room for the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was very surprised at the size of the room.  It was very roomy and comfortable.  Only beef I had was the only pillows were these huge thick ones and I have a neck problem and need a thinner pillow.  Guess it is time to start carrying one with me.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r571433136-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571433136</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r571278711-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571278711</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>You get what you pay for. If it wasn't for location, i...</t>
+  </si>
+  <si>
+    <t>You get what you pay for. If it wasn't for location, i would not have chosen this place.  Never stay again!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r568328947-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568328947</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Weekend Trip</t>
+  </si>
+  <si>
+    <t>Towels were not that clean and some were actually dirty and discolored, The linen may not have been changed, looks old and brownish than white. overwhelming smell of bleach in the bathroom to provide a false sense of clean. Room was never cleaned during our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r567701822-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567701822</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r567334822-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567334822</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Low Rent</t>
+  </si>
+  <si>
+    <t>I normally stay at Hampton Inn, Hyatt Place, or Holiday Inn Express.  I figured I'd give this place a try since it is located right near where I had to work the next morning. I could walk from the hotel to my job.I will NEVER stay there again .., low rent everything</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r563783011-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563783011</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r563636416-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563636416</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Nice Friendly Staff, several inconveniences.</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and informative. I couldn’t have asked for better service from them. However, the elevator was out of service and I’m unfortunately disabled and had to drag my heavy luggage up a very steep set of stairs to get to my room as there were no more rooms on the bottom floor. While in our room our down the hall neighbors had a ‘block party’ with several other guest rooms late into the night/early morning hours. They were loud, slammed doors constantly and had loud music playing. I’m not positive it could be heard downstairs but didn’t feel comfortable reporting it for fear of my safety being a woman traveling on my own with my child. So while I had a place to spend the night it most definitely was not restful or comforting. The room was nice and spacious and had been cleaned well prior to our arrival, which was nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and informative. I couldn’t have asked for better service from them. However, the elevator was out of service and I’m unfortunately disabled and had to drag my heavy luggage up a very steep set of stairs to get to my room as there were no more rooms on the bottom floor. While in our room our down the hall neighbors had a ‘block party’ with several other guest rooms late into the night/early morning hours. They were loud, slammed doors constantly and had loud music playing. I’m not positive it could be heard downstairs but didn’t feel comfortable reporting it for fear of my safety being a woman traveling on my own with my child. So while I had a place to spend the night it most definitely was not restful or comforting. The room was nice and spacious and had been cleaned well prior to our arrival, which was nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r563575368-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563575368</t>
+  </si>
+  <si>
+    <t>Price is cheapest in area-for a reason</t>
+  </si>
+  <si>
+    <t>OK for the price, Metal bathtub rusting where tub met tile, obvious drywall repairs. In general, about 5 years past needing major refurbishing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r560933649-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560933649</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r558890589-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558890589</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>I needed a convenient stopover after flying into Hobby Airport from NYC before traveling north to my destination by road. The hotel was located right outside the airport entrance and the rooms were clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r558859371-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558859371</t>
+  </si>
+  <si>
+    <t>Ok hotel</t>
+  </si>
+  <si>
+    <t>The hotel was cheap enough. The staff was pretty good overall. We did have a problem with the sink in the bathroom but they corrected it! Overall it was an ok stay!</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r555668699-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555668699</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r555018122-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555018122</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r554955147-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554955147</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r547705769-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547705769</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Don’t Stay Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I arrived late in the evening checked in and was told the elevator didn’t work. No offer to help me carry my suitcase up the stairs. Open the door to my room and the TV is on and the bed not made like someone was still in the room. Creeped me out. Got another room but desk agent was not apologetic at all. Did not feel comfortable or safe at this hotel. Won’t stay there again. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r546844909-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546844909</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Horrible night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was so awful. It’s much worse in person than it looks in pictures. We checked in after midnight after a long flight only to have to carry our bags upstairs to our room because their elevator was out and once we finally got to my room it was dirty and used, had to go back to the counter downstairs with all our stuff to check into another room that was ready for guests but this hotel is in desperate need for new linen. All the sheets pillowcases and bedspreads had stains and the towels were even worse. Do not stay here. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r546635867-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546635867</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Get what you pay for</t>
+  </si>
+  <si>
+    <t>Ahh... The tub was filthy, the bathroom reaked of sex. There was a pack of performance enhanced drugs for sex left behind near the bed. Safe to say, I slept on top of the covers. This was a last minute booking due to a flight being delayed, so I really wasn't too concerned to make a fuss. I would advise the managers to pay more attention to the property's surroundings and the endeavors of the rooms. I am a Property Manager, and know that turning things around as such can be drastic... but, hell, at this location it is needed. Best wishes!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r543410132-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543410132</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>A clean, comfortable stay</t>
+  </si>
+  <si>
+    <t>We stayed at this Super 8 over the Thanksgiving Holiday.  The motel is convenient to reach fromHobby airport, very clean and the service was good.  The breakfast was minimal, no knives to cutthe bread or waffles and the biscuits were like hard tack.  The only fruit available was apples sodon't expect a lot from this.  Otherwise, I would stay here again.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r543260278-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543260278</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Only one ice machine and it was not working - this is a 3 story hotel in Houston, TX in 80+ degrees !!!(This was not due to hurricane damage either)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r540039325-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540039325</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Super 8 Houston Hobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We chose this motel because of the proximity to Houston Hobby, needing a night's stay on both ends of a cruise. The rooms are very large, as are the bathrooms. A comfortable stay, relatively quiet given it's location near the airport. Don't come here expecting a 4 star hotel - you will be disappointed. It is a motel, not a resort. We would definitely stay again given the location and price. Of note, the elevator was damaged from the hurricane. It you have mobility issues, be sure to request a first floor room. There is a shuttle for the airport, round the clock, on time and reliable. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r537176384-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537176384</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r536653614-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536653614</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r534951296-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534951296</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r533202339-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533202339</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Worst nightmare of my life!</t>
+  </si>
+  <si>
+    <t>DO NOT STAY AT THIS DUMP. I would give them zero stars if I could. My husband and I arrived at the Super 8 late in the afternoon on a Sunday because we were heading out at 6 am the next morning to catch a flight to Cancun for vacation. When we arrived, the lady at the front desk gave us a key to rm 125; however, when we tried to enter the room, we discovered it was not clean, so the housekeeping lady was there in the hall and she was pissed that the front desk gave us that room when it wasn't clean. She stormed off to the front desk to talk to her about it and told us to wait there. That was the first time I've ever seen housekeeping so irate. She even cussed as she was walking off . . . real professional, right? But we blew it off because she was going to get us a new room. A minute or two later, she comes back with a new room key for room 118. We entered it and it was two double beds instead of the king bed we reserved, but the housekeeper said there were no king beds available. That didn't really anger us or anything, it wasn't a big deal. I hate not getting to sleep next to my husband (he is quite large so we have to get a king size...DO NOT STAY AT THIS DUMP. I would give them zero stars if I could. My husband and I arrived at the Super 8 late in the afternoon on a Sunday because we were heading out at 6 am the next morning to catch a flight to Cancun for vacation. When we arrived, the lady at the front desk gave us a key to rm 125; however, when we tried to enter the room, we discovered it was not clean, so the housekeeping lady was there in the hall and she was pissed that the front desk gave us that room when it wasn't clean. She stormed off to the front desk to talk to her about it and told us to wait there. That was the first time I've ever seen housekeeping so irate. She even cussed as she was walking off . . . real professional, right? But we blew it off because she was going to get us a new room. A minute or two later, she comes back with a new room key for room 118. We entered it and it was two double beds instead of the king bed we reserved, but the housekeeper said there were no king beds available. That didn't really anger us or anything, it wasn't a big deal. I hate not getting to sleep next to my husband (he is quite large so we have to get a king size to sleep together). But oh well, no biggie. So we go to sleep about 10 pm and then I was awoken to the very scary sound of someone trying to enter our room!!! I woke up my husband, but by then it had stopped. We had the lock on the door, so I tried to tell myself it was ok and that they can't get in. My heart was already pounding so I was trying to settle down to get some rest (it was 1:00 am at this point). I was just about to fall asleep again and the room phone rings and rings. We didn't pick it up because it was the middle of the night! So again, here we are trying to fall back to sleep and get some rest before we have to wake up at 5:30. I could NOT sleep. At 2:40-ish, someone starts banging on the damn door!!! Scared the crap out of me. These two guys had breached the room, actually opened the door. My husband retrieved his weapon (since it is Texas and we are licensed to carry). The only thing keeping them from coming in was the latch. I told him to be careful and don't open the door all the way and just keep the latch on while talking to them. I was wondering if the building was on fire or WHAT!!!??? Very scary, let me tell you. This has never happened before in my life. These two guys (Gomez and Steele) immediately give my husband attitude and tell him that this room was supposed to be vacant and that we were not in the system! OMG I was thinking this has got to be some kind of scam. We paid via credit card and I signed a waiver and all kinds of stuff when I checked in. This guy, Steele, continued to harass my husband and we explained to him what had happened when we arrived and that the housekeeper got us a different room. Apparently they didn't document the room change! Anyway, this guy (Steele) keeps talking like a big tough guy and harassing my husband. Then my husband tells me to call the law, so I was just about to, but I was waiting to see if they would back off. The lady from the front desk is coming down the hall now to see what's going on. My husband explains to her the same thing, and none of them tried to apologize or ANYTHING. We tell her we want a refund because of this ridiculousness, but she just walks away and says under her breath that she'll tell her manager...no apology. The two guys began to tell us that they had every right to enter the room, like we had no right to a peaceful night's rest after we paid for it!!! So my husband just shut the door on them after telling them to tell it to the law when they arrive. This guy was carrying a gun but has no business dealing with people. He's going to get himself shot. I never did call the law. My husband was disappointed that I didn't, but I just didn't want to make it worse. So of course there was no sleeping after all that! I wanted to leave immediately, I was so very mad. But we would have had to wait at the airport for too long. We head to the front desk to check out before 6 am and told the same lady that didn't apologize that we wanted a refund and told her how terribly we were treated, but of course, no apology still. She said nothing at all except that she will tell the manager. Needless to say, the first day of our vacation was completely ruined. My husband had not slept the night before, either, so he was really super exhausted. I cannot believe how this hotel treats their guests. That was a first for us!!! DO NOT STAY AT THIS DUMP.MoreShow less</t>
+  </si>
+  <si>
+    <t>DO NOT STAY AT THIS DUMP. I would give them zero stars if I could. My husband and I arrived at the Super 8 late in the afternoon on a Sunday because we were heading out at 6 am the next morning to catch a flight to Cancun for vacation. When we arrived, the lady at the front desk gave us a key to rm 125; however, when we tried to enter the room, we discovered it was not clean, so the housekeeping lady was there in the hall and she was pissed that the front desk gave us that room when it wasn't clean. She stormed off to the front desk to talk to her about it and told us to wait there. That was the first time I've ever seen housekeeping so irate. She even cussed as she was walking off . . . real professional, right? But we blew it off because she was going to get us a new room. A minute or two later, she comes back with a new room key for room 118. We entered it and it was two double beds instead of the king bed we reserved, but the housekeeper said there were no king beds available. That didn't really anger us or anything, it wasn't a big deal. I hate not getting to sleep next to my husband (he is quite large so we have to get a king size...DO NOT STAY AT THIS DUMP. I would give them zero stars if I could. My husband and I arrived at the Super 8 late in the afternoon on a Sunday because we were heading out at 6 am the next morning to catch a flight to Cancun for vacation. When we arrived, the lady at the front desk gave us a key to rm 125; however, when we tried to enter the room, we discovered it was not clean, so the housekeeping lady was there in the hall and she was pissed that the front desk gave us that room when it wasn't clean. She stormed off to the front desk to talk to her about it and told us to wait there. That was the first time I've ever seen housekeeping so irate. She even cussed as she was walking off . . . real professional, right? But we blew it off because she was going to get us a new room. A minute or two later, she comes back with a new room key for room 118. We entered it and it was two double beds instead of the king bed we reserved, but the housekeeper said there were no king beds available. That didn't really anger us or anything, it wasn't a big deal. I hate not getting to sleep next to my husband (he is quite large so we have to get a king size to sleep together). But oh well, no biggie. So we go to sleep about 10 pm and then I was awoken to the very scary sound of someone trying to enter our room!!! I woke up my husband, but by then it had stopped. We had the lock on the door, so I tried to tell myself it was ok and that they can't get in. My heart was already pounding so I was trying to settle down to get some rest (it was 1:00 am at this point). I was just about to fall asleep again and the room phone rings and rings. We didn't pick it up because it was the middle of the night! So again, here we are trying to fall back to sleep and get some rest before we have to wake up at 5:30. I could NOT sleep. At 2:40-ish, someone starts banging on the damn door!!! Scared the crap out of me. These two guys had breached the room, actually opened the door. My husband retrieved his weapon (since it is Texas and we are licensed to carry). The only thing keeping them from coming in was the latch. I told him to be careful and don't open the door all the way and just keep the latch on while talking to them. I was wondering if the building was on fire or WHAT!!!??? Very scary, let me tell you. This has never happened before in my life. These two guys (Gomez and Steele) immediately give my husband attitude and tell him that this room was supposed to be vacant and that we were not in the system! OMG I was thinking this has got to be some kind of scam. We paid via credit card and I signed a waiver and all kinds of stuff when I checked in. This guy, Steele, continued to harass my husband and we explained to him what had happened when we arrived and that the housekeeper got us a different room. Apparently they didn't document the room change! Anyway, this guy (Steele) keeps talking like a big tough guy and harassing my husband. Then my husband tells me to call the law, so I was just about to, but I was waiting to see if they would back off. The lady from the front desk is coming down the hall now to see what's going on. My husband explains to her the same thing, and none of them tried to apologize or ANYTHING. We tell her we want a refund because of this ridiculousness, but she just walks away and says under her breath that she'll tell her manager...no apology. The two guys began to tell us that they had every right to enter the room, like we had no right to a peaceful night's rest after we paid for it!!! So my husband just shut the door on them after telling them to tell it to the law when they arrive. This guy was carrying a gun but has no business dealing with people. He's going to get himself shot. I never did call the law. My husband was disappointed that I didn't, but I just didn't want to make it worse. So of course there was no sleeping after all that! I wanted to leave immediately, I was so very mad. But we would have had to wait at the airport for too long. We head to the front desk to check out before 6 am and told the same lady that didn't apologize that we wanted a refund and told her how terribly we were treated, but of course, no apology still. She said nothing at all except that she will tell the manager. Needless to say, the first day of our vacation was completely ruined. My husband had not slept the night before, either, so he was really super exhausted. I cannot believe how this hotel treats their guests. That was a first for us!!! DO NOT STAY AT THIS DUMP.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r532727157-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532727157</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r532666994-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532666994</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r531509020-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531509020</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Not the best experience!</t>
+  </si>
+  <si>
+    <t>If you want to be close to the airport but do not care for a smelly, dirty rooms and hallways and bad customer service, this might be a good choice!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r529965592-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529965592</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r528500015-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528500015</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Unsatisfactory Staff Attitude.</t>
+  </si>
+  <si>
+    <t>We have always chosen to stay at Super 8 motels. This is the first time that we have not been satisfied with our stay.  We booked rooms for two nights but left after the first night. Stayed here a couple of days. Brought a concern to the person at the front desk after our first night about a noisy A/C fan. The young lady told me they are aware of the problem but didn't know when it would be taken care of. Did not offer to move us to another room. She was more concerned with her personal phone call and arguing with her male friend. The room smelled moldy. MoreShow less</t>
+  </si>
+  <si>
+    <t>We have always chosen to stay at Super 8 motels. This is the first time that we have not been satisfied with our stay.  We booked rooms for two nights but left after the first night. Stayed here a couple of days. Brought a concern to the person at the front desk after our first night about a noisy A/C fan. The young lady told me they are aware of the problem but didn't know when it would be taken care of. Did not offer to move us to another room. She was more concerned with her personal phone call and arguing with her male friend. The room smelled moldy. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r527905267-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527905267</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r525246081-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>525246081</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Since Super 8's are generally lower budget hotels I wasn't expecting much to begin with. We were arriving very late and had a very early flight, so I couldn't justify spending a lot of money for a 5 hour sleep. Check in was slow. We arrived after midnight and basically had to wait for the two ladies at the front discuss whether the room was ready or not. Apparently there was a room change and they weren't sure the room was clean. Really, at 12:15 am the room may not be clean? Kids were making noise and playing on the staircase and people were "hanging out" outside. Immediately I didn't have a good feeling. We asked for the direction of the elevator and was told it was broken so we had to drag two very heavy bags up 2 flights of carpeted steps. The hallway leading up to the room was very dark and dingy. I felt very uneasy. Upon entering the room, the AC was not on and the room was stuffy.  It was a large room and it was only surface clean. The nightstand and alarm clock were sticky. The sheets and towels did not have a clean and fresh smell and there wasn't a shower curtain liner in the bathroom. It was a cloth shower curtain. The faucet was loose and you needed to hold it down to be able to lift the handle to allow water...Since Super 8's are generally lower budget hotels I wasn't expecting much to begin with. We were arriving very late and had a very early flight, so I couldn't justify spending a lot of money for a 5 hour sleep. Check in was slow. We arrived after midnight and basically had to wait for the two ladies at the front discuss whether the room was ready or not. Apparently there was a room change and they weren't sure the room was clean. Really, at 12:15 am the room may not be clean? Kids were making noise and playing on the staircase and people were "hanging out" outside. Immediately I didn't have a good feeling. We asked for the direction of the elevator and was told it was broken so we had to drag two very heavy bags up 2 flights of carpeted steps. The hallway leading up to the room was very dark and dingy. I felt very uneasy. Upon entering the room, the AC was not on and the room was stuffy.  It was a large room and it was only surface clean. The nightstand and alarm clock were sticky. The sheets and towels did not have a clean and fresh smell and there wasn't a shower curtain liner in the bathroom. It was a cloth shower curtain. The faucet was loose and you needed to hold it down to be able to lift the handle to allow water to flow. The toilet seat was loose as well and you literally felt as if you could fall off. These things gave me the creeps and I couldn't sleep there comfortably.  The hotel provides breakfast. I was already not comfortable eating there but thought maybe we would just grab a yogurt on our way out. Breakfast consisted of biscuits and Danish in plastic bags. You could see moisture in them. No thanks, I'll pass. Thankfully, there were no bugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Since Super 8's are generally lower budget hotels I wasn't expecting much to begin with. We were arriving very late and had a very early flight, so I couldn't justify spending a lot of money for a 5 hour sleep. Check in was slow. We arrived after midnight and basically had to wait for the two ladies at the front discuss whether the room was ready or not. Apparently there was a room change and they weren't sure the room was clean. Really, at 12:15 am the room may not be clean? Kids were making noise and playing on the staircase and people were "hanging out" outside. Immediately I didn't have a good feeling. We asked for the direction of the elevator and was told it was broken so we had to drag two very heavy bags up 2 flights of carpeted steps. The hallway leading up to the room was very dark and dingy. I felt very uneasy. Upon entering the room, the AC was not on and the room was stuffy.  It was a large room and it was only surface clean. The nightstand and alarm clock were sticky. The sheets and towels did not have a clean and fresh smell and there wasn't a shower curtain liner in the bathroom. It was a cloth shower curtain. The faucet was loose and you needed to hold it down to be able to lift the handle to allow water...Since Super 8's are generally lower budget hotels I wasn't expecting much to begin with. We were arriving very late and had a very early flight, so I couldn't justify spending a lot of money for a 5 hour sleep. Check in was slow. We arrived after midnight and basically had to wait for the two ladies at the front discuss whether the room was ready or not. Apparently there was a room change and they weren't sure the room was clean. Really, at 12:15 am the room may not be clean? Kids were making noise and playing on the staircase and people were "hanging out" outside. Immediately I didn't have a good feeling. We asked for the direction of the elevator and was told it was broken so we had to drag two very heavy bags up 2 flights of carpeted steps. The hallway leading up to the room was very dark and dingy. I felt very uneasy. Upon entering the room, the AC was not on and the room was stuffy.  It was a large room and it was only surface clean. The nightstand and alarm clock were sticky. The sheets and towels did not have a clean and fresh smell and there wasn't a shower curtain liner in the bathroom. It was a cloth shower curtain. The faucet was loose and you needed to hold it down to be able to lift the handle to allow water to flow. The toilet seat was loose as well and you literally felt as if you could fall off. These things gave me the creeps and I couldn't sleep there comfortably.  The hotel provides breakfast. I was already not comfortable eating there but thought maybe we would just grab a yogurt on our way out. Breakfast consisted of biscuits and Danish in plastic bags. You could see moisture in them. No thanks, I'll pass. Thankfully, there were no bugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r524138217-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>524138217</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Big Spaciouse ROOM</t>
+  </si>
+  <si>
+    <t>I've lived in Houston all my life and stayed in alot of hotels but with me  moving to California and with the Hurricane Harvey I had too make a trip back to Houston. With no hotels available due to the catastrophe this was last min room I could get. For the price I paid is was well worth it big spacious rooms big television and a good breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r516402486-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516402486</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r514955089-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514955089</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>LESS than expected</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here in June, 2017.  I called from the airport for shuttle pick up....  NO one ever answered the phone.  Once I arrived in a pricey cab...  the clerk's explanation was sketchy!  The room was smelly to the point that I went to Walgreens to purchase disinfectant spray which only helped a tiny bit!  The room was just creepy to me....  the bed appeared to be clean, but it took me hours to get comfortable in that place.  There was a 'spot' for an iron and ironing board - but neither item was available.  Food was available the next morning - but my husband and I were NOT going to eat anything in this hotel.  It's a shame that this property isn't kept better since it is so close and convenient to the Houston Hobby Airport!  We won't stay here again and would not recommend it to anyone.  Sorely disappointed customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here in June, 2017.  I called from the airport for shuttle pick up....  NO one ever answered the phone.  Once I arrived in a pricey cab...  the clerk's explanation was sketchy!  The room was smelly to the point that I went to Walgreens to purchase disinfectant spray which only helped a tiny bit!  The room was just creepy to me....  the bed appeared to be clean, but it took me hours to get comfortable in that place.  There was a 'spot' for an iron and ironing board - but neither item was available.  Food was available the next morning - but my husband and I were NOT going to eat anything in this hotel.  It's a shame that this property isn't kept better since it is so close and convenient to the Houston Hobby Airport!  We won't stay here again and would not recommend it to anyone.  Sorely disappointed customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r514862709-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514862709</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r509749278-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509749278</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r507233393-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507233393</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r502581562-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502581562</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r494634809-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494634809</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Electrical problem at the room. Manager was not available for an answer or the hotel was ready to accommodate tenants.</t>
+  </si>
+  <si>
+    <t>The power went out in our room and being in Texas the room temperature was very uncomfortable. Manager was not available for an answer and staff could not resolve the problem. The staff was not ready to accommodate us or other guests. Only one side of the building had power while other did not.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r494110745-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494110745</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>horrible stay</t>
+  </si>
+  <si>
+    <t>2 desk staff friendly, 2 staff not friendly.  2 staff said "sorry" about problems that arose, 2 staff did not.  Lobby not inviting.  Staff not dressed professionally.  Blacktop at entry in need of repair.  No table and chairs in ADA room that was large enough.  Bathroom sink pulled inches from wall with caulk adhering to it.  Rust along bottom front of bath tub.  Hot and cold water reversed.  Only 1 bath and hand towel per person, 1 wash cloth per person.  Ice machine leaking water from bottom  Though we were on 1st floor the elevator was out of order.  On arrival bedspread had large stain on it.  Called desk for a clean one at about 10a.m.  Told them we would be gone just come in at change it.  We returned at  7:30p.m.  and bedspread had not been changed.  Decided to forego another call.  At 10 p.m called in a wake up call and young man at desk remembered we needed a bedspread change and said he could bring it himself right then.  We declined but were appreciative of his concern and offer.  Breakfast was scant and posed problems.  No refrigerated or insulated dispenser for mild.  Milk sits on counter in a pitcher.  Coffee was too weak to drink and staff said that it couldn't be made any stronger, the grounds would overflow or something.  Hot food was biscuits and gravy.  Biscuits were hard but gravy was o.k. I had raisin...2 desk staff friendly, 2 staff not friendly.  2 staff said "sorry" about problems that arose, 2 staff did not.  Lobby not inviting.  Staff not dressed professionally.  Blacktop at entry in need of repair.  No table and chairs in ADA room that was large enough.  Bathroom sink pulled inches from wall with caulk adhering to it.  Rust along bottom front of bath tub.  Hot and cold water reversed.  Only 1 bath and hand towel per person, 1 wash cloth per person.  Ice machine leaking water from bottom  Though we were on 1st floor the elevator was out of order.  On arrival bedspread had large stain on it.  Called desk for a clean one at about 10a.m.  Told them we would be gone just come in at change it.  We returned at  7:30p.m.  and bedspread had not been changed.  Decided to forego another call.  At 10 p.m called in a wake up call and young man at desk remembered we needed a bedspread change and said he could bring it himself right then.  We declined but were appreciative of his concern and offer.  Breakfast was scant and posed problems.  No refrigerated or insulated dispenser for mild.  Milk sits on counter in a pitcher.  Coffee was too weak to drink and staff said that it couldn't be made any stronger, the grounds would overflow or something.  Hot food was biscuits and gravy.  Biscuits were hard but gravy was o.k. I had raisin bran which was fresh but when I went for seconds there was no more  milk in pitcher.  I walked to desk to ask for more milk.  I was told that the manager was bringing it soon.  No apology just a statement. Milk took too long and we had to leave for our planned day.  The next morning I went to breakfast at 7:35 and there was no milk.  I went to desk to ask and again was told that manager was bringing it.  It appeared that biscuits and gravy were left over from previous day.  The first morning our coffee maker didn't work.  I called to get a replacement and was told that there was none.  I asked that I be brought one from another unoccupied room.  I was told that they were going to be full for the weekend so none was available.  I said that I believed that a current guest was at least as important that ones coming on the weekend.  She said she didn't have the authority to take a coffee maker form another room.  i asked that the manager wouldn't be in for an hour.  I asked that she call him and she did.  According to her he said he would be in in an hour and straighten it out.  She none the less overstepped her authority and brought a replacMoreShow less</t>
+  </si>
+  <si>
+    <t>2 desk staff friendly, 2 staff not friendly.  2 staff said "sorry" about problems that arose, 2 staff did not.  Lobby not inviting.  Staff not dressed professionally.  Blacktop at entry in need of repair.  No table and chairs in ADA room that was large enough.  Bathroom sink pulled inches from wall with caulk adhering to it.  Rust along bottom front of bath tub.  Hot and cold water reversed.  Only 1 bath and hand towel per person, 1 wash cloth per person.  Ice machine leaking water from bottom  Though we were on 1st floor the elevator was out of order.  On arrival bedspread had large stain on it.  Called desk for a clean one at about 10a.m.  Told them we would be gone just come in at change it.  We returned at  7:30p.m.  and bedspread had not been changed.  Decided to forego another call.  At 10 p.m called in a wake up call and young man at desk remembered we needed a bedspread change and said he could bring it himself right then.  We declined but were appreciative of his concern and offer.  Breakfast was scant and posed problems.  No refrigerated or insulated dispenser for mild.  Milk sits on counter in a pitcher.  Coffee was too weak to drink and staff said that it couldn't be made any stronger, the grounds would overflow or something.  Hot food was biscuits and gravy.  Biscuits were hard but gravy was o.k. I had raisin...2 desk staff friendly, 2 staff not friendly.  2 staff said "sorry" about problems that arose, 2 staff did not.  Lobby not inviting.  Staff not dressed professionally.  Blacktop at entry in need of repair.  No table and chairs in ADA room that was large enough.  Bathroom sink pulled inches from wall with caulk adhering to it.  Rust along bottom front of bath tub.  Hot and cold water reversed.  Only 1 bath and hand towel per person, 1 wash cloth per person.  Ice machine leaking water from bottom  Though we were on 1st floor the elevator was out of order.  On arrival bedspread had large stain on it.  Called desk for a clean one at about 10a.m.  Told them we would be gone just come in at change it.  We returned at  7:30p.m.  and bedspread had not been changed.  Decided to forego another call.  At 10 p.m called in a wake up call and young man at desk remembered we needed a bedspread change and said he could bring it himself right then.  We declined but were appreciative of his concern and offer.  Breakfast was scant and posed problems.  No refrigerated or insulated dispenser for mild.  Milk sits on counter in a pitcher.  Coffee was too weak to drink and staff said that it couldn't be made any stronger, the grounds would overflow or something.  Hot food was biscuits and gravy.  Biscuits were hard but gravy was o.k. I had raisin bran which was fresh but when I went for seconds there was no more  milk in pitcher.  I walked to desk to ask for more milk.  I was told that the manager was bringing it soon.  No apology just a statement. Milk took too long and we had to leave for our planned day.  The next morning I went to breakfast at 7:35 and there was no milk.  I went to desk to ask and again was told that manager was bringing it.  It appeared that biscuits and gravy were left over from previous day.  The first morning our coffee maker didn't work.  I called to get a replacement and was told that there was none.  I asked that I be brought one from another unoccupied room.  I was told that they were going to be full for the weekend so none was available.  I said that I believed that a current guest was at least as important that ones coming on the weekend.  She said she didn't have the authority to take a coffee maker form another room.  i asked that the manager wouldn't be in for an hour.  I asked that she call him and she did.  According to her he said he would be in in an hour and straighten it out.  She none the less overstepped her authority and brought a replacMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r490742363-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490742363</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r488250605-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488250605</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Room was smelly and dated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The decor was dated. The room was smelly and dirty. The sheets were stained. Housekeeping changed the sheets </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r488190626-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488190626</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r485472774-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485472774</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Not a bad stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right a cross the st from hobby airport you can park ur car there for 7 dollars a night the shuttle will pick you from hobby and hotel </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r481729999-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481729999</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r480701952-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480701952</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>clean room but...</t>
+  </si>
+  <si>
+    <t>the room was clean and comfy, but one of the bathroom walls had obviously been repaired, or in the process of, and there were several bits of drywall/plaster on the floor right up under the repaired spot.Other than that, the room was fine.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r480008327-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480008327</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>good for the price</t>
+  </si>
+  <si>
+    <t>the place is old but very clean and located right across the airport. it's not fancy but i have no complaints. very clean and organized.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r478693386-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478693386</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r477997922-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477997922</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r474160358-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474160358</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>I expected nothing fancy because of the relatively inexpensive rate, but I did expect sanitary. The outside is rough, and the pool was filled in with concrete, but that's ok, we weren't there to swim. The parking lot light we parked under flashed like a welders arc the entire time we were there.  We got our room, which was a good size, and appeared clean. When I pulled back the blankets, I found enough hair to weave a rope, and the pillows had makeup and drool on them, and maybe a little blood.  After I threw up, I went to complain. The girl at the desk told me that they checked it clean mistakenly. I explained that they made the beds, and were trying to fool us. She stopped just short of apologizing, and gave us another room. She lowered the rate a few bucks, and we moved rooms. The new room also appeared clean. The bedding seemed ok, so we got settled in. At shower time, I discovered that the shower curtain also was holding multiple long black hairs. It was late, so we just ignored it and went on with our lives. The rest of the stay was fine, and without incident. The a/c was cool, and the tv was nice. Super 8 gets no more of my money from here on. Also, I am not the guy that is easily bothered by things that aren't perfect....MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I expected nothing fancy because of the relatively inexpensive rate, but I did expect sanitary. The outside is rough, and the pool was filled in with concrete, but that's ok, we weren't there to swim. The parking lot light we parked under flashed like a welders arc the entire time we were there.  We got our room, which was a good size, and appeared clean. When I pulled back the blankets, I found enough hair to weave a rope, and the pillows had makeup and drool on them, and maybe a little blood.  After I threw up, I went to complain. The girl at the desk told me that they checked it clean mistakenly. I explained that they made the beds, and were trying to fool us. She stopped just short of apologizing, and gave us another room. She lowered the rate a few bucks, and we moved rooms. The new room also appeared clean. The bedding seemed ok, so we got settled in. At shower time, I discovered that the shower curtain also was holding multiple long black hairs. It was late, so we just ignored it and went on with our lives. The rest of the stay was fine, and without incident. The a/c was cool, and the tv was nice. Super 8 gets no more of my money from here on. Also, I am not the guy that is easily bothered by things that aren't perfect....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r463312687-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463312687</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r462755742-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462755742</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r462512876-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462512876</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r460859894-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460859894</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Very Hospitable</t>
+  </si>
+  <si>
+    <t>Upon our arrival (short overnight stay for early morning flight) we were greeted by Mr. Nishant who accommodated me with a shuttle pickup from the car rental facility.  He also was able to change our room as we had a problem with an adjoining door.  He went the extra mile to satisfy our needs.  I also witnessed him carry other visitors bags to their room.  Room was clean and bed was nice and firm (King room).  Next morning we received a morning wake up at 0330 and at 0415 the shuttle arrived.  No hassle and will definately stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r458104124-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458104124</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Pleasant surprise</t>
+  </si>
+  <si>
+    <t>I habe stayed at several Super 8, and sometimes they really surprise you for the price! I used my Wyndam GoFast to get this room for only $35. The room was gorgeous and HUGE! I was very blown away!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r457407907-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457407907</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r446774632-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446774632</t>
+  </si>
+  <si>
+    <t>12/26/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This is the second time I have stayed at this Super 8.  Overall I have pleased.  I didn't have a chance to try out their WiFi connection.  The room was more than adequate.  The breakfast was good.  I ate cold items but they also had hot items.  I plan on staying here whenever I am flying using Houston Hobby Airport,</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r446628459-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446628459</t>
+  </si>
+  <si>
+    <t>12/25/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>I was surprised at the quality of the rooms I stayed in when I visited Houston. The staff was courteous and the hotel was really convenient being so close to the airport.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r445902549-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445902549</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>I got stuck in Hobby Airport by a flight cancellation. The...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got stuck in Hobby Airport by a flight cancellation. The Super 8 was close, the rooms were large, clean and comfortable and the staff was great. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r443164535-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443164535</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Not recommending</t>
+  </si>
+  <si>
+    <t>The elevator was broken. Not cool when I had my son with me and had to get three large suitcases up the stairs. The lady on the phone that night was not helpful at all. When I called to let them know my flight was in she wasn't helpful to where to go. The breakfast wasn't anything to get excited about either. Also, internet Wi-Fi was awful. They said it would work in the room but hardly did. Took forever to connect and was very slow if working</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r440377955-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440377955</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Donald Kibort and Chistine Hernandez</t>
+  </si>
+  <si>
+    <t>The stay was nice but we were charged twice and as of this dated they have not return the money</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r439067817-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439067817</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t>Good value. Front desk staff were very friendly and helpful. Housekeeping was less than professional. Found dried up old used coffee packet in coffee pot, which hadn't been cleaned in quite some time. Reported loose toilet seat twice which never got fixed. Breakfast was a sad excuse. Desk clerk on one morning had her grade school children setting up the breakfast items. Internet kept failing, making it impossible to get any work done and when it did work it was very slow.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r435718876-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435718876</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r429375246-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429375246</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r428023402-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428023402</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Nice night to a horrible morning</t>
+  </si>
+  <si>
+    <t>We got to the hotel early and they took us right in. Everything was great. Ladies set up a wake up call for us in the morning and advised us how to get a ride to the airport in the morning. They even got us some extra pillows and told us great places to eat. Day and night was good. Then woke up on own 45 minutes past wake up call that we didn't get. Ran around like crazy to leave and went out to the lobby to find someone that wasn't around. took for ever to find her and asked if she could call for a pick up ride for us. See said no problem and called them and said it will take about 10 minutes. went back to my room and got my stuff witch was next to lobby. first room that everyone can see and got my stuff. When i got out to the lobby in about 3 minutes the lady stated that shuttle already came by and she didn't know my room to let me know so the shuttle left. As she was telling me all this she was handing me my receipt for check out so she obviously knew my name and or room #. then the shuttle took like 15 minutes to come across the street. I probably could have walked to airport faster. by the time the shuttle picked us up and took...We got to the hotel early and they took us right in. Everything was great. Ladies set up a wake up call for us in the morning and advised us how to get a ride to the airport in the morning. They even got us some extra pillows and told us great places to eat. Day and night was good. Then woke up on own 45 minutes past wake up call that we didn't get. Ran around like crazy to leave and went out to the lobby to find someone that wasn't around. took for ever to find her and asked if she could call for a pick up ride for us. See said no problem and called them and said it will take about 10 minutes. went back to my room and got my stuff witch was next to lobby. first room that everyone can see and got my stuff. When i got out to the lobby in about 3 minutes the lady stated that shuttle already came by and she didn't know my room to let me know so the shuttle left. As she was telling me all this she was handing me my receipt for check out so she obviously knew my name and or room #. then the shuttle took like 15 minutes to come across the street. I probably could have walked to airport faster. by the time the shuttle picked us up and took his sweet time to drop us off. So in the End i missed my plane ride and had to wait for the next flight couple hours later. So  nice place o stay but make sure and set your own alarm cause she wont call you. lolMoreShow less</t>
+  </si>
+  <si>
+    <t>We got to the hotel early and they took us right in. Everything was great. Ladies set up a wake up call for us in the morning and advised us how to get a ride to the airport in the morning. They even got us some extra pillows and told us great places to eat. Day and night was good. Then woke up on own 45 minutes past wake up call that we didn't get. Ran around like crazy to leave and went out to the lobby to find someone that wasn't around. took for ever to find her and asked if she could call for a pick up ride for us. See said no problem and called them and said it will take about 10 minutes. went back to my room and got my stuff witch was next to lobby. first room that everyone can see and got my stuff. When i got out to the lobby in about 3 minutes the lady stated that shuttle already came by and she didn't know my room to let me know so the shuttle left. As she was telling me all this she was handing me my receipt for check out so she obviously knew my name and or room #. then the shuttle took like 15 minutes to come across the street. I probably could have walked to airport faster. by the time the shuttle picked us up and took...We got to the hotel early and they took us right in. Everything was great. Ladies set up a wake up call for us in the morning and advised us how to get a ride to the airport in the morning. They even got us some extra pillows and told us great places to eat. Day and night was good. Then woke up on own 45 minutes past wake up call that we didn't get. Ran around like crazy to leave and went out to the lobby to find someone that wasn't around. took for ever to find her and asked if she could call for a pick up ride for us. See said no problem and called them and said it will take about 10 minutes. went back to my room and got my stuff witch was next to lobby. first room that everyone can see and got my stuff. When i got out to the lobby in about 3 minutes the lady stated that shuttle already came by and she didn't know my room to let me know so the shuttle left. As she was telling me all this she was handing me my receipt for check out so she obviously knew my name and or room #. then the shuttle took like 15 minutes to come across the street. I probably could have walked to airport faster. by the time the shuttle picked us up and took his sweet time to drop us off. So in the End i missed my plane ride and had to wait for the next flight couple hours later. So  nice place o stay but make sure and set your own alarm cause she wont call you. lolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r419845807-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419845807</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Worst Super 8 ever</t>
+  </si>
+  <si>
+    <t>iBiggest problem was internet - no access.  Clerk said a lot of customers have complained about that, but they hadn't attempted to try to fix it - said it was a problem with my equippment- however it had worked the previous 3 nights an next 4 nights at other motels~  Worst Super 8 ever!  Couldn't access internet - clerk said several guests had complained about that but the problem was with my equipment - tho it had worked fine the previous 3 nights and following 4 nights in other motels.  They made no attempt to address the problem.  Also, requested an extra blanket at 5pm and finally got it at midnight.  Other issues too numerous to mention!  You need to address the issues at this location, including address wrong line.on MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>iBiggest problem was internet - no access.  Clerk said a lot of customers have complained about that, but they hadn't attempted to try to fix it - said it was a problem with my equippment- however it had worked the previous 3 nights an next 4 nights at other motels~  Worst Super 8 ever!  Couldn't access internet - clerk said several guests had complained about that but the problem was with my equipment - tho it had worked fine the previous 3 nights and following 4 nights in other motels.  They made no attempt to address the problem.  Also, requested an extra blanket at 5pm and finally got it at midnight.  Other issues too numerous to mention!  You need to address the issues at this location, including address wrong line.on More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r416306232-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416306232</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel has been remodeled and was very clean and comfortable. Right across from airport. 24 hr. Shuttle and was very prompt in picking us up. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r415759562-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415759562</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Stayed for convenience but pleasant surprise.</t>
+  </si>
+  <si>
+    <t>Across street from Hobby airport and about 1 mile from rental car return.Rooms have been remodeled and were a big upgrade from previous Super 8.Inexpensive, clean and acceptable complimentary breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r413586190-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413586190</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Excellent hotel...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literally right at the airport. Recently renovated. Beautiful, new and clean. Terry at the front desk let me use her own phone charger as I forgot mine. How nice was that?? She also helped me organize somewhere to get dinner. Shuttle to the airport came 5 minutes after being called. Great inexpensive hotel if you need to be at the airport. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r413577927-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413577927</t>
+  </si>
+  <si>
+    <t>Same Pillows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All 3 pillows were firm and same kind .I have stayed in different hotels which have different style pillows.I woke up with a sore neck, and still tired </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r412357235-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412357235</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r396283421-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396283421</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Has Potential</t>
+  </si>
+  <si>
+    <t>This property recently became part of the Super 8 chain. It is an older property and looks as if there may have been some refurbishing. My room was spacious, clean, and comfortable with good tv channel selection and wifi. Service was inconsistent. Wake up calls did not consistently come as requested, housekeeping not always left soap and towels, and breakfast area/tables not consistently cleaned, though available item choices were pretty good. Some front desk clerks were better than others, with some apathetic. This COULD be a good budget hotel option opposite Hobby Airport, but they have room for improvement.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r396036532-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396036532</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Awezome</t>
+  </si>
+  <si>
+    <t>Great place to stay. Close to airport friendly helpful staff and most of all very clean!! This super 8 is non smoking through out the building so it doesn't reek of cig smoke. The rooms are very spacious and the air conditioning is great!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r387830846-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387830846</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r383745191-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383745191</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Very good service at a convenient price</t>
+  </si>
+  <si>
+    <t>Really good friendly service. Clean very comfortable room. Great rest. My second time there and it gets better every time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonal P, General Manager at Super 8 by Wyndham Houston Hobby Airport North, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Really good friendly service. Clean very comfortable room. Great rest. My second time there and it gets better every time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r381205688-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381205688</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Suprise</t>
+  </si>
+  <si>
+    <t>This Hotel was nice-it used to be a suites hotel so the rooms are big. Beds, bathroom rugs-everything was new and great condition. Next to the airport so good for business travelers like me. Above average breakfast. Heartily recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonal P, General Manager at Super 8 by Wyndham Houston Hobby Airport North, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>This Hotel was nice-it used to be a suites hotel so the rooms are big. Beds, bathroom rugs-everything was new and great condition. Next to the airport so good for business travelers like me. Above average breakfast. Heartily recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r381156719-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381156719</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r372198689-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372198689</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Great staff, okay hotel</t>
+  </si>
+  <si>
+    <t>The staff was amazing.Hotel room keys stopped working EVERY day. Supposedly, they deactivate when they are close to a credit card or cell phone.I find this interesting, as if no one has credit cards or cell phones these daysAside from that, the staff was incredibly helpful and responsive. I didn't have any interaction with management or the owners, but all the people working up front and the housekeepers were awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The staff was amazing.Hotel room keys stopped working EVERY day. Supposedly, they deactivate when they are close to a credit card or cell phone.I find this interesting, as if no one has credit cards or cell phones these daysAside from that, the staff was incredibly helpful and responsive. I didn't have any interaction with management or the owners, but all the people working up front and the housekeepers were awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r372088481-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372088481</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r368739288-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368739288</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel</t>
+  </si>
+  <si>
+    <t>We were greeted promptly upon arrival at the hotel and given a first floor room.  Nice, clean and quiet even though it is very near the airport.  The shuttle arrived in plenty of time to get us to the airport to make our flight.  My only complaint was the long distance we had to walk to get something to eat and the fact that, even though we left a request for an early wake up call, we were not awakened by hotel personnel.  The clerk said she called us three times so the phone must have been out of order or someone had silenced the ringer.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were greeted promptly upon arrival at the hotel and given a first floor room.  Nice, clean and quiet even though it is very near the airport.  The shuttle arrived in plenty of time to get us to the airport to make our flight.  My only complaint was the long distance we had to walk to get something to eat and the fact that, even though we left a request for an early wake up call, we were not awakened by hotel personnel.  The clerk said she called us three times so the phone must have been out of order or someone had silenced the ringer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r362033454-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362033454</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Could be a good hotel if.....</t>
+  </si>
+  <si>
+    <t>Elevator did not work. My knee was bothering me and it was a bummer to have to carry my bags up the stairs!  Shuttle van is a parking garage van service. Was very slow to pick me up when leaving to go to the airport, 25 minute wait in lobby.  Front desk clerk was very nice. Rooms were very clean and quiet. Also very large room. The ac unit was missing a knob and hard to adjust. Also no iron or ironing board in room!  This could be a very good hotel if they could work out the shuttle service and by making sure all rooms are good to go. I asked about elevator and they had no idea when it would be fixed!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonal P, General Manager at Super 8 by Wyndham Houston Hobby Airport North, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Elevator did not work. My knee was bothering me and it was a bummer to have to carry my bags up the stairs!  Shuttle van is a parking garage van service. Was very slow to pick me up when leaving to go to the airport, 25 minute wait in lobby.  Front desk clerk was very nice. Rooms were very clean and quiet. Also very large room. The ac unit was missing a knob and hard to adjust. Also no iron or ironing board in room!  This could be a very good hotel if they could work out the shuttle service and by making sure all rooms are good to go. I asked about elevator and they had no idea when it would be fixed!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r360878733-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360878733</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Dysfunctional check in services</t>
+  </si>
+  <si>
+    <t>I made a reservation for a handicapped king room and when I arrived, found out that this was not what was reserved for me. This has happened before in other Wyndham properties.  They wanted me to go to a second floor non handicapped room, with a non working elevator, so that myself and all other guests had to carry all luggage up two flights of stairs. They and corporate initially refused to even give me a first floor room.  After 45 minutes of negotiation and being transferred to a recording in corporate, they magically found a first floor handicapped room. The shower is built in such a way that all water that hits the shower curtain flows under the commode which is in the lowest part of the room, forming a moat around the sink and commode.  Don't bring your swimsuit, for the pool is filled with sand, rotting leaves and foliage. Both corporate and the motel are to blame for not being able to change the room type at check-in, for they are all typically the same price when making a reservation, whether using points or cash on the corporate web site.MoreShow less</t>
+  </si>
+  <si>
+    <t>I made a reservation for a handicapped king room and when I arrived, found out that this was not what was reserved for me. This has happened before in other Wyndham properties.  They wanted me to go to a second floor non handicapped room, with a non working elevator, so that myself and all other guests had to carry all luggage up two flights of stairs. They and corporate initially refused to even give me a first floor room.  After 45 minutes of negotiation and being transferred to a recording in corporate, they magically found a first floor handicapped room. The shower is built in such a way that all water that hits the shower curtain flows under the commode which is in the lowest part of the room, forming a moat around the sink and commode.  Don't bring your swimsuit, for the pool is filled with sand, rotting leaves and foliage. Both corporate and the motel are to blame for not being able to change the room type at check-in, for they are all typically the same price when making a reservation, whether using points or cash on the corporate web site.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r357823865-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357823865</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Good for Overnight in Houston Hobby Area</t>
+  </si>
+  <si>
+    <t>I had need of a room near the Houston Hobby airport just for one night. When I called the Super 8 Houston Hobby Airport North, the desk agent was very helpful and kind. I found the prices to be a good value. When I arrived I called the hotel for the shuttle and it came quickly. The shuttle ride is very short, in fact, you could walk from where I was but I appreciated not having to as it was raining. The shuttle is free and runs 24 hours a day. Ask at the desk to book the shuttle for the return to the airport. The front desk staff was super nice both when I checked in and checked out. I appreciated having a friendly face when I was so tired!The hotel is just off the airport property and is in an industrial looking area. This didn't bother me, I wasn't sight seeing. The room was large and clean. The bed and pillows were comfortable. The room was pretty quiet for an airport motel.The room includes breakfast. One tip, go early to eat. I slept in because I had a late flight and when I got to the breakfast room, there wasn't much left but I made due.All in all, this property met my needs. Thanks for a pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I had need of a room near the Houston Hobby airport just for one night. When I called the Super 8 Houston Hobby Airport North, the desk agent was very helpful and kind. I found the prices to be a good value. When I arrived I called the hotel for the shuttle and it came quickly. The shuttle ride is very short, in fact, you could walk from where I was but I appreciated not having to as it was raining. The shuttle is free and runs 24 hours a day. Ask at the desk to book the shuttle for the return to the airport. The front desk staff was super nice both when I checked in and checked out. I appreciated having a friendly face when I was so tired!The hotel is just off the airport property and is in an industrial looking area. This didn't bother me, I wasn't sight seeing. The room was large and clean. The bed and pillows were comfortable. The room was pretty quiet for an airport motel.The room includes breakfast. One tip, go early to eat. I slept in because I had a late flight and when I got to the breakfast room, there wasn't much left but I made due.All in all, this property met my needs. Thanks for a pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r355050612-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355050612</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r352382353-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352382353</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t>Not up to Wyndham standards</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it was close to HOU.  I called when we arrived at 11:10 pm on 2/24 to request a shuttle.  Called again at 11:30 and the clerk said she didn't know where the shuttle was and that another customer had been waiting over an hour.  Waited a few more minutes and then took a cab.  When we arrived at the hotel there were 2 others in line in front of us and it took the clerk over 20 minutes to check them in before us.  Our room was on the 2nd floor and the elevator was broken.  The hallway flooring was very uneven.  The room had been recently remodeled, was clean and comfortable for the 5 hours we were there.  We had no problem taking the shuttle at 6 am the next day.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it was close to HOU.  I called when we arrived at 11:10 pm on 2/24 to request a shuttle.  Called again at 11:30 and the clerk said she didn't know where the shuttle was and that another customer had been waiting over an hour.  Waited a few more minutes and then took a cab.  When we arrived at the hotel there were 2 others in line in front of us and it took the clerk over 20 minutes to check them in before us.  Our room was on the 2nd floor and the elevator was broken.  The hallway flooring was very uneven.  The room had been recently remodeled, was clean and comfortable for the 5 hours we were there.  We had no problem taking the shuttle at 6 am the next day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r351150590-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351150590</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r337973586-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337973586</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Sonal P, Owner at Super 8 by Wyndham Houston Hobby Airport North, responded to this reviewResponded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r334791053-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334791053</t>
+  </si>
+  <si>
+    <t>12/24/2015</t>
+  </si>
+  <si>
+    <t>Very convenient and good value</t>
+  </si>
+  <si>
+    <t>I stayed there because I was flying the next morning, and the experience was very nice. The room was new, clean, and large. The bed very comfortable. The free wifi, shuttle, and nice breaskfast add to the positive opinion. The price of the room is very reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I stayed there because I was flying the next morning, and the experience was very nice. The room was new, clean, and large. The bed very comfortable. The free wifi, shuttle, and nice breaskfast add to the positive opinion. The price of the room is very reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r327044413-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327044413</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r324154805-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324154805</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Super kind and accomodating</t>
+  </si>
+  <si>
+    <t>The place is really clean and even if is near the airport is quite silent. The managers are super kind and nice.They have a nice complimentary breakfast with hot pancakes, cereals and toast and fresh coffee.The room was very comfy with a queen size bed and a sofa.It's very good for business, there is a desk with an office chair in the room and the free wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sonal P, Owner at Super 8 by Wyndham Houston Hobby Airport North, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>The place is really clean and even if is near the airport is quite silent. The managers are super kind and nice.They have a nice complimentary breakfast with hot pancakes, cereals and toast and fresh coffee.The room was very comfy with a queen size bed and a sofa.It's very good for business, there is a desk with an office chair in the room and the free wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r322936383-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322936383</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r322408776-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322408776</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Super 8 Stay</t>
+  </si>
+  <si>
+    <t>Overall this place wasn't terrible. The elevator wasn't in working order. When we went online to reserve our room it directed us to the Super 8 Houston Hobby SOUTH instead of North like we clicked. The gentleman at the South location wasn't so accommodating in regards to our cancellation and refund. We had to pay the cancellation at one location and then another nights stay at the original location we wanted even though it wasn't our fault we were booked at the wrong place. MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall this place wasn't terrible. The elevator wasn't in working order. When we went online to reserve our room it directed us to the Super 8 Houston Hobby SOUTH instead of North like we clicked. The gentleman at the South location wasn't so accommodating in regards to our cancellation and refund. We had to pay the cancellation at one location and then another nights stay at the original location we wanted even though it wasn't our fault we were booked at the wrong place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r171773805-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171773805</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>When a room was shown prior to reserving it, it was nice and roomy. But upon arrival didn't get the room shown and had to change rooms twice. The rooms were half cleaned, sheets were dirty,had a vomit looking stain on it so visible, the spread on first room had blood spot on it and it was visible, I took picture of it was very disappointing; cockroach dead on the floor and one room had weed leftovers on the table; yet whomever cleaned room need to be fired. Would never think these things would be so visible and they just leave it like that and put somebody that is staying a week in such rooms. We were to stay for a week, but left the second day after having to get a third room; they were nice about moving us; but this shouldn't have happened. Yet they didn't want to let us get out of the week stay, because we had already paid for the week. They finally did after son-n-law showed his sheriff badge and requested to talk to manager; manager approved of these nasty rooms, had to call owner. Yet he didn't  want to give money back for the unspent days.  The health department should have been called right then and there. They need to be closed down by the health department. Yes, near airport and thought it would have been nicer. What they preshow you is not...When a room was shown prior to reserving it, it was nice and roomy. But upon arrival didn't get the room shown and had to change rooms twice. The rooms were half cleaned, sheets were dirty,had a vomit looking stain on it so visible, the spread on first room had blood spot on it and it was visible, I took picture of it was very disappointing; cockroach dead on the floor and one room had weed leftovers on the table; yet whomever cleaned room need to be fired. Would never think these things would be so visible and they just leave it like that and put somebody that is staying a week in such rooms. We were to stay for a week, but left the second day after having to get a third room; they were nice about moving us; but this shouldn't have happened. Yet they didn't want to let us get out of the week stay, because we had already paid for the week. They finally did after son-n-law showed his sheriff badge and requested to talk to manager; manager approved of these nasty rooms, had to call owner. Yet he didn't  want to give money back for the unspent days.  The health department should have been called right then and there. They need to be closed down by the health department. Yes, near airport and thought it would have been nicer. What they preshow you is not what you get.  I would  never recommend or suggest anyone stay there as it is now.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>When a room was shown prior to reserving it, it was nice and roomy. But upon arrival didn't get the room shown and had to change rooms twice. The rooms were half cleaned, sheets were dirty,had a vomit looking stain on it so visible, the spread on first room had blood spot on it and it was visible, I took picture of it was very disappointing; cockroach dead on the floor and one room had weed leftovers on the table; yet whomever cleaned room need to be fired. Would never think these things would be so visible and they just leave it like that and put somebody that is staying a week in such rooms. We were to stay for a week, but left the second day after having to get a third room; they were nice about moving us; but this shouldn't have happened. Yet they didn't want to let us get out of the week stay, because we had already paid for the week. They finally did after son-n-law showed his sheriff badge and requested to talk to manager; manager approved of these nasty rooms, had to call owner. Yet he didn't  want to give money back for the unspent days.  The health department should have been called right then and there. They need to be closed down by the health department. Yes, near airport and thought it would have been nicer. What they preshow you is not...When a room was shown prior to reserving it, it was nice and roomy. But upon arrival didn't get the room shown and had to change rooms twice. The rooms were half cleaned, sheets were dirty,had a vomit looking stain on it so visible, the spread on first room had blood spot on it and it was visible, I took picture of it was very disappointing; cockroach dead on the floor and one room had weed leftovers on the table; yet whomever cleaned room need to be fired. Would never think these things would be so visible and they just leave it like that and put somebody that is staying a week in such rooms. We were to stay for a week, but left the second day after having to get a third room; they were nice about moving us; but this shouldn't have happened. Yet they didn't want to let us get out of the week stay, because we had already paid for the week. They finally did after son-n-law showed his sheriff badge and requested to talk to manager; manager approved of these nasty rooms, had to call owner. Yet he didn't  want to give money back for the unspent days.  The health department should have been called right then and there. They need to be closed down by the health department. Yes, near airport and thought it would have been nicer. What they preshow you is not what you get.  I would  never recommend or suggest anyone stay there as it is now.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r170360054-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170360054</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>terrible the lady that runs that place daphane is a theft.crackhead staff.</t>
+  </si>
+  <si>
+    <t>crack heads work there.if staff is giving drug test they all would fail.that place is ran by a family of crack heads,weed heads,and pill heads.they over charge u and steal out your rooms.the only good thing about that place is the rooms are big.the pool water is black and dirty with frogs swimming in it like a swamp.also ran into a pimp and his prositutes there.it gets worst.i was charged one price one day and twenty dollars more the next day.that place needs a whole new staff.the same people been running it like that since it was called the quality.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r126199764-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126199764</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>Worst place</t>
+  </si>
+  <si>
+    <t>When we got here it wasnt what it said on the internet or other peoples review .. So we got here walk in to the room which there pretty big  that i have to say but no towel's  in the bathroom, toilet paper or remote for the tv , so they change my hubby and i to another room he opens the door and there was somebody already in the room dont they know when they rent a room who is where ??? Whatever then we get another room and there hardly no toilet paper and the microwave dont work oh and to top it off the ice machine dont work either but it get's better i ask to use the fitness room and the front desk clark dont have the key to get it or the trendmill dont work !!!!! horrific i dont recomend this place to stay not even for a nite ! oh beware of the staff that cleans your room the dont knock they just walk right in .....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>When we got here it wasnt what it said on the internet or other peoples review .. So we got here walk in to the room which there pretty big  that i have to say but no towel's  in the bathroom, toilet paper or remote for the tv , so they change my hubby and i to another room he opens the door and there was somebody already in the room dont they know when they rent a room who is where ??? Whatever then we get another room and there hardly no toilet paper and the microwave dont work oh and to top it off the ice machine dont work either but it get's better i ask to use the fitness room and the front desk clark dont have the key to get it or the trendmill dont work !!!!! horrific i dont recomend this place to stay not even for a nite ! oh beware of the staff that cleans your room the dont knock they just walk right in .....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r12337732-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>12337732</t>
+  </si>
+  <si>
+    <t>01/04/2008</t>
+  </si>
+  <si>
+    <t>Great Airport Hotel</t>
+  </si>
+  <si>
+    <t>Convience is the key word here.  Not only is the Quality Inn a nice clean hotel, with friendly staff, but it is so easy to catch a plane out of Hobby, as they are right across the street from the main entrance and provide a 24-hour shuttle service.  I'll stay with them again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r4895975-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4895975</t>
+  </si>
+  <si>
+    <t>04/03/2006</t>
+  </si>
+  <si>
+    <t>Will not go back</t>
+  </si>
+  <si>
+    <t>On our stay, our first room was occupied, even though they say it was supposed to be vacant.  Imagine our surprise when we went to our room at 10:30pm to find that there was already someone in there!  We went to the front desk to tell them and they gave us another room.  This was a downgrade from the one we asked for.  When we finally got to this room, it was infested with fleas!  We now have to flea bomb our cars, due to the fact that they were still on us when we left!  On our way out, after we "checked out", we passed a room that smelled of marijuana!  They really need to check this hotel out and its mananagement.  All the girl could say was "I'm really sorry".MoreShow less</t>
+  </si>
+  <si>
+    <t>On our stay, our first room was occupied, even though they say it was supposed to be vacant.  Imagine our surprise when we went to our room at 10:30pm to find that there was already someone in there!  We went to the front desk to tell them and they gave us another room.  This was a downgrade from the one we asked for.  When we finally got to this room, it was infested with fleas!  We now have to flea bomb our cars, due to the fact that they were still on us when we left!  On our way out, after we "checked out", we passed a room that smelled of marijuana!  They really need to check this hotel out and its mananagement.  All the girl could say was "I'm really sorry".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266125-r3605222-Super_8_by_Wyndham_Houston_Hobby_Airport_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3605222</t>
+  </si>
+  <si>
+    <t>06/21/2005</t>
+  </si>
+  <si>
+    <t>Quality at Quality Inn</t>
+  </si>
+  <si>
+    <t>Location - less than desirable for a family of 4 visiting Houston.  Sandwiched between a park &amp; fly and Budget truck rental place.The outside looks like an old style apartment building - no frills.  The inside was fantastic.  New, modern, friendly staff.  The ownership obviously care enough to spend money keeping the place up.  The pool was wonderful and clean.  The room was clean and we had enough towels.  The iron and ironing board in every room was a pleasant surprise.The Internet wasn't working well and I don't think the staff was too worried about it until my husband complained.Breakfast was wonderful: cereal, milk, bread, muffins, oatmeal, pkgs of grits, fruit, waffles (self-made), toaster, microwave.I'd stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>Location - less than desirable for a family of 4 visiting Houston.  Sandwiched between a park &amp; fly and Budget truck rental place.The outside looks like an old style apartment building - no frills.  The inside was fantastic.  New, modern, friendly staff.  The ownership obviously care enough to spend money keeping the place up.  The pool was wonderful and clean.  The room was clean and we had enough towels.  The iron and ironing board in every room was a pleasant surprise.The Internet wasn't working well and I don't think the staff was too worried about it until my husband complained.Breakfast was wonderful: cereal, milk, bread, muffins, oatmeal, pkgs of grits, fruit, waffles (self-made), toaster, microwave.I'd stay againMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2080,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2112,6830 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>137</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>137</v>
+      </c>
+      <c r="O21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>137</v>
+      </c>
+      <c r="O22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" t="s">
+        <v>149</v>
+      </c>
+      <c r="L23" t="s">
+        <v>150</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" t="s">
+        <v>155</v>
+      </c>
+      <c r="L24" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>151</v>
+      </c>
+      <c r="O24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" t="s">
+        <v>161</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>151</v>
+      </c>
+      <c r="O25" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" t="s">
+        <v>166</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>167</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>169</v>
+      </c>
+      <c r="J27" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" t="s">
+        <v>172</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>167</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" t="s">
+        <v>177</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>178</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>182</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>178</v>
+      </c>
+      <c r="O29" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>185</v>
+      </c>
+      <c r="J30" t="s">
+        <v>186</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>178</v>
+      </c>
+      <c r="O30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>182</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>178</v>
+      </c>
+      <c r="O31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" t="s">
+        <v>193</v>
+      </c>
+      <c r="L32" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>178</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" t="s">
+        <v>198</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>178</v>
+      </c>
+      <c r="O33" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>200</v>
+      </c>
+      <c r="J34" t="s">
+        <v>198</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>178</v>
+      </c>
+      <c r="O34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>202</v>
+      </c>
+      <c r="J35" t="s">
+        <v>203</v>
+      </c>
+      <c r="K35" t="s">
+        <v>204</v>
+      </c>
+      <c r="L35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>178</v>
+      </c>
+      <c r="O35" t="s">
+        <v>65</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>207</v>
+      </c>
+      <c r="J36" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>209</v>
+      </c>
+      <c r="O36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>211</v>
+      </c>
+      <c r="J37" t="s">
+        <v>212</v>
+      </c>
+      <c r="K37" t="s">
+        <v>213</v>
+      </c>
+      <c r="L37" t="s">
+        <v>214</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>209</v>
+      </c>
+      <c r="O37" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>217</v>
+      </c>
+      <c r="J38" t="s">
+        <v>218</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>209</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>220</v>
+      </c>
+      <c r="J39" t="s">
+        <v>221</v>
+      </c>
+      <c r="K39" t="s">
+        <v>171</v>
+      </c>
+      <c r="L39" t="s">
+        <v>222</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>209</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>224</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>225</v>
+      </c>
+      <c r="J40" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" t="s">
+        <v>227</v>
+      </c>
+      <c r="L40" t="s">
+        <v>228</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>209</v>
+      </c>
+      <c r="O40" t="s">
+        <v>77</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>229</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>230</v>
+      </c>
+      <c r="J41" t="s">
+        <v>231</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>232</v>
+      </c>
+      <c r="O41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>233</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>234</v>
+      </c>
+      <c r="J42" t="s">
+        <v>235</v>
+      </c>
+      <c r="K42" t="s">
+        <v>236</v>
+      </c>
+      <c r="L42" t="s">
+        <v>237</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>238</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>240</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>241</v>
+      </c>
+      <c r="J43" t="s">
+        <v>235</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>182</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>232</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>243</v>
+      </c>
+      <c r="J44" t="s">
+        <v>244</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>232</v>
+      </c>
+      <c r="O44" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>246</v>
+      </c>
+      <c r="J45" t="s">
+        <v>247</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>248</v>
+      </c>
+      <c r="O45" t="s">
+        <v>92</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>249</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>250</v>
+      </c>
+      <c r="J46" t="s">
+        <v>251</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>248</v>
+      </c>
+      <c r="O46" t="s">
+        <v>92</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>253</v>
+      </c>
+      <c r="J47" t="s">
+        <v>254</v>
+      </c>
+      <c r="K47" t="s">
+        <v>255</v>
+      </c>
+      <c r="L47" t="s">
+        <v>256</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>238</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>258</v>
+      </c>
+      <c r="J48" t="s">
+        <v>259</v>
+      </c>
+      <c r="K48" t="s">
+        <v>260</v>
+      </c>
+      <c r="L48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>238</v>
+      </c>
+      <c r="O48" t="s">
+        <v>77</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>263</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>264</v>
+      </c>
+      <c r="J49" t="s">
+        <v>265</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>266</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>268</v>
+      </c>
+      <c r="J50" t="s">
+        <v>269</v>
+      </c>
+      <c r="K50" t="s">
+        <v>270</v>
+      </c>
+      <c r="L50" t="s">
+        <v>271</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>266</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>272</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>273</v>
+      </c>
+      <c r="J51" t="s">
+        <v>269</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>266</v>
+      </c>
+      <c r="O51" t="s">
+        <v>65</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>274</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>275</v>
+      </c>
+      <c r="J52" t="s">
+        <v>276</v>
+      </c>
+      <c r="K52" t="s">
+        <v>277</v>
+      </c>
+      <c r="L52" t="s">
+        <v>278</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>266</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>279</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>280</v>
+      </c>
+      <c r="J53" t="s">
+        <v>281</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>282</v>
+      </c>
+      <c r="O53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>283</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>284</v>
+      </c>
+      <c r="J54" t="s">
+        <v>285</v>
+      </c>
+      <c r="K54" t="s">
+        <v>286</v>
+      </c>
+      <c r="L54" t="s">
+        <v>287</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>282</v>
+      </c>
+      <c r="O54" t="s">
+        <v>65</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>288</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>289</v>
+      </c>
+      <c r="J55" t="s">
+        <v>290</v>
+      </c>
+      <c r="K55" t="s">
+        <v>291</v>
+      </c>
+      <c r="L55" t="s">
+        <v>292</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>282</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>293</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>294</v>
+      </c>
+      <c r="J56" t="s">
+        <v>295</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>282</v>
+      </c>
+      <c r="O56" t="s">
+        <v>77</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>297</v>
+      </c>
+      <c r="J57" t="s">
+        <v>298</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>282</v>
+      </c>
+      <c r="O57" t="s">
+        <v>77</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>299</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>300</v>
+      </c>
+      <c r="J58" t="s">
+        <v>301</v>
+      </c>
+      <c r="K58" t="s">
+        <v>302</v>
+      </c>
+      <c r="L58" t="s">
+        <v>303</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>282</v>
+      </c>
+      <c r="O58" t="s">
+        <v>304</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>306</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>307</v>
+      </c>
+      <c r="J59" t="s">
+        <v>308</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>182</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O59" t="s">
+        <v>77</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>310</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>311</v>
+      </c>
+      <c r="J60" t="s">
+        <v>312</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>309</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>313</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>314</v>
+      </c>
+      <c r="J61" t="s">
+        <v>315</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>309</v>
+      </c>
+      <c r="O61" t="s">
+        <v>92</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>316</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>317</v>
+      </c>
+      <c r="J62" t="s">
+        <v>318</v>
+      </c>
+      <c r="K62" t="s">
+        <v>319</v>
+      </c>
+      <c r="L62" t="s">
+        <v>320</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>309</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>322</v>
+      </c>
+      <c r="J63" t="s">
+        <v>323</v>
+      </c>
+      <c r="K63" t="s">
+        <v>324</v>
+      </c>
+      <c r="L63" t="s">
+        <v>325</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>309</v>
+      </c>
+      <c r="O63" t="s">
+        <v>77</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>326</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>327</v>
+      </c>
+      <c r="J64" t="s">
+        <v>328</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>309</v>
+      </c>
+      <c r="O64" t="s">
+        <v>92</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>329</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>330</v>
+      </c>
+      <c r="J65" t="s">
+        <v>331</v>
+      </c>
+      <c r="K65" t="s">
+        <v>332</v>
+      </c>
+      <c r="L65" t="s">
+        <v>333</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>334</v>
+      </c>
+      <c r="O65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>335</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>336</v>
+      </c>
+      <c r="J66" t="s">
+        <v>337</v>
+      </c>
+      <c r="K66" t="s">
+        <v>338</v>
+      </c>
+      <c r="L66" t="s">
+        <v>339</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>334</v>
+      </c>
+      <c r="O66" t="s">
+        <v>65</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>340</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>341</v>
+      </c>
+      <c r="J67" t="s">
+        <v>342</v>
+      </c>
+      <c r="K67" t="s">
+        <v>343</v>
+      </c>
+      <c r="L67" t="s">
+        <v>344</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>334</v>
+      </c>
+      <c r="O67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>345</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>346</v>
+      </c>
+      <c r="J68" t="s">
+        <v>347</v>
+      </c>
+      <c r="K68" t="s">
+        <v>348</v>
+      </c>
+      <c r="L68" t="s">
+        <v>349</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>334</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>350</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>351</v>
+      </c>
+      <c r="J69" t="s">
+        <v>352</v>
+      </c>
+      <c r="K69" t="s">
+        <v>353</v>
+      </c>
+      <c r="L69" t="s">
+        <v>354</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>355</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>356</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>357</v>
+      </c>
+      <c r="J70" t="s">
+        <v>358</v>
+      </c>
+      <c r="K70" t="s">
+        <v>359</v>
+      </c>
+      <c r="L70" t="s">
+        <v>360</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>355</v>
+      </c>
+      <c r="O70" t="s">
+        <v>92</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>361</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>362</v>
+      </c>
+      <c r="J71" t="s">
+        <v>363</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>364</v>
+      </c>
+      <c r="O71" t="s">
+        <v>65</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>365</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>366</v>
+      </c>
+      <c r="J72" t="s">
+        <v>367</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>364</v>
+      </c>
+      <c r="O72" t="s">
+        <v>92</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>368</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>369</v>
+      </c>
+      <c r="J73" t="s">
+        <v>370</v>
+      </c>
+      <c r="K73" t="s">
+        <v>371</v>
+      </c>
+      <c r="L73" t="s">
+        <v>372</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>364</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>374</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>375</v>
+      </c>
+      <c r="J74" t="s">
+        <v>376</v>
+      </c>
+      <c r="K74" t="s">
+        <v>377</v>
+      </c>
+      <c r="L74" t="s">
+        <v>378</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>379</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>381</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>382</v>
+      </c>
+      <c r="J75" t="s">
+        <v>383</v>
+      </c>
+      <c r="K75" t="s">
+        <v>384</v>
+      </c>
+      <c r="L75" t="s">
+        <v>385</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>379</v>
+      </c>
+      <c r="O75" t="s">
+        <v>77</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>387</v>
+      </c>
+      <c r="J76" t="s">
+        <v>388</v>
+      </c>
+      <c r="K76" t="s">
+        <v>389</v>
+      </c>
+      <c r="L76" t="s">
+        <v>390</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>379</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>391</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>392</v>
+      </c>
+      <c r="J77" t="s">
+        <v>393</v>
+      </c>
+      <c r="K77" t="s">
+        <v>394</v>
+      </c>
+      <c r="L77" t="s">
+        <v>395</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>396</v>
+      </c>
+      <c r="O77" t="s">
+        <v>65</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>397</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>398</v>
+      </c>
+      <c r="J78" t="s">
+        <v>393</v>
+      </c>
+      <c r="K78" t="s">
+        <v>399</v>
+      </c>
+      <c r="L78" t="s">
+        <v>400</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>396</v>
+      </c>
+      <c r="O78" t="s">
+        <v>92</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>401</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>402</v>
+      </c>
+      <c r="J79" t="s">
+        <v>403</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>396</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>404</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>405</v>
+      </c>
+      <c r="J80" t="s">
+        <v>406</v>
+      </c>
+      <c r="K80" t="s">
+        <v>407</v>
+      </c>
+      <c r="L80" t="s">
+        <v>408</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>409</v>
+      </c>
+      <c r="O80" t="s">
+        <v>92</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>410</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>411</v>
+      </c>
+      <c r="J81" t="s">
+        <v>412</v>
+      </c>
+      <c r="K81" t="s">
+        <v>413</v>
+      </c>
+      <c r="L81" t="s">
+        <v>414</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>409</v>
+      </c>
+      <c r="O81" t="s">
+        <v>92</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>415</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>416</v>
+      </c>
+      <c r="J82" t="s">
+        <v>417</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>418</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>419</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>420</v>
+      </c>
+      <c r="J83" t="s">
+        <v>421</v>
+      </c>
+      <c r="K83" t="s">
+        <v>422</v>
+      </c>
+      <c r="L83" t="s">
+        <v>423</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>418</v>
+      </c>
+      <c r="O83" t="s">
+        <v>92</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>424</v>
+      </c>
+      <c r="X83" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>427</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>428</v>
+      </c>
+      <c r="J84" t="s">
+        <v>429</v>
+      </c>
+      <c r="K84" t="s">
+        <v>430</v>
+      </c>
+      <c r="L84" t="s">
+        <v>431</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>418</v>
+      </c>
+      <c r="O84" t="s">
+        <v>92</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>432</v>
+      </c>
+      <c r="X84" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>435</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>436</v>
+      </c>
+      <c r="J85" t="s">
+        <v>429</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s">
+        <v>182</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>418</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>432</v>
+      </c>
+      <c r="X85" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>437</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>438</v>
+      </c>
+      <c r="J86" t="s">
+        <v>439</v>
+      </c>
+      <c r="K86" t="s">
+        <v>440</v>
+      </c>
+      <c r="L86" t="s">
+        <v>441</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>442</v>
+      </c>
+      <c r="O86" t="s">
+        <v>92</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>432</v>
+      </c>
+      <c r="X86" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>444</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>445</v>
+      </c>
+      <c r="J87" t="s">
+        <v>439</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s">
+        <v>182</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>446</v>
+      </c>
+      <c r="O87" t="s">
+        <v>92</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>432</v>
+      </c>
+      <c r="X87" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>447</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>448</v>
+      </c>
+      <c r="J88" t="s">
+        <v>449</v>
+      </c>
+      <c r="K88" t="s">
+        <v>450</v>
+      </c>
+      <c r="L88" t="s">
+        <v>451</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>442</v>
+      </c>
+      <c r="O88" t="s">
+        <v>77</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>432</v>
+      </c>
+      <c r="X88" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>453</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>454</v>
+      </c>
+      <c r="J89" t="s">
+        <v>455</v>
+      </c>
+      <c r="K89" t="s">
+        <v>456</v>
+      </c>
+      <c r="L89" t="s">
+        <v>457</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>442</v>
+      </c>
+      <c r="O89" t="s">
+        <v>92</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>458</v>
+      </c>
+      <c r="X89" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>461</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>462</v>
+      </c>
+      <c r="J90" t="s">
+        <v>463</v>
+      </c>
+      <c r="K90" t="s">
+        <v>464</v>
+      </c>
+      <c r="L90" t="s">
+        <v>465</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>442</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>458</v>
+      </c>
+      <c r="X90" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>467</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>468</v>
+      </c>
+      <c r="J91" t="s">
+        <v>469</v>
+      </c>
+      <c r="K91" t="s">
+        <v>470</v>
+      </c>
+      <c r="L91" t="s">
+        <v>471</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>472</v>
+      </c>
+      <c r="O91" t="s">
+        <v>92</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>458</v>
+      </c>
+      <c r="X91" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>474</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>475</v>
+      </c>
+      <c r="J92" t="s">
+        <v>476</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>477</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>478</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>479</v>
+      </c>
+      <c r="J93" t="s">
+        <v>480</v>
+      </c>
+      <c r="K93" t="s">
+        <v>481</v>
+      </c>
+      <c r="L93" t="s">
+        <v>482</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>477</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>484</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>485</v>
+      </c>
+      <c r="J94" t="s">
+        <v>486</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>477</v>
+      </c>
+      <c r="O94" t="s">
+        <v>77</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>487</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>488</v>
+      </c>
+      <c r="J95" t="s">
+        <v>489</v>
+      </c>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s">
+        <v>182</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>472</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>490</v>
+      </c>
+      <c r="X95" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>492</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>493</v>
+      </c>
+      <c r="J96" t="s">
+        <v>494</v>
+      </c>
+      <c r="K96" t="s">
+        <v>495</v>
+      </c>
+      <c r="L96" t="s">
+        <v>496</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>497</v>
+      </c>
+      <c r="O96" t="s">
+        <v>92</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>490</v>
+      </c>
+      <c r="X96" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>499</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>500</v>
+      </c>
+      <c r="J97" t="s">
+        <v>501</v>
+      </c>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s">
+        <v>182</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>502</v>
+      </c>
+      <c r="O97" t="s">
+        <v>65</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>490</v>
+      </c>
+      <c r="X97" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>503</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>504</v>
+      </c>
+      <c r="J98" t="s">
+        <v>505</v>
+      </c>
+      <c r="K98" t="s">
+        <v>506</v>
+      </c>
+      <c r="L98" t="s">
+        <v>507</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>502</v>
+      </c>
+      <c r="O98" t="s">
+        <v>77</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>508</v>
+      </c>
+      <c r="X98" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>511</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>512</v>
+      </c>
+      <c r="J99" t="s">
+        <v>513</v>
+      </c>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s">
+        <v>182</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>514</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>508</v>
+      </c>
+      <c r="X99" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>515</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>516</v>
+      </c>
+      <c r="J100" t="s">
+        <v>517</v>
+      </c>
+      <c r="K100" t="s">
+        <v>518</v>
+      </c>
+      <c r="L100" t="s">
+        <v>519</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>514</v>
+      </c>
+      <c r="O100" t="s">
+        <v>77</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>508</v>
+      </c>
+      <c r="X100" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>521</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>522</v>
+      </c>
+      <c r="J101" t="s">
+        <v>523</v>
+      </c>
+      <c r="K101" t="s">
+        <v>524</v>
+      </c>
+      <c r="L101" t="s">
+        <v>525</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>526</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>528</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>529</v>
+      </c>
+      <c r="J102" t="s">
+        <v>530</v>
+      </c>
+      <c r="K102" t="s">
+        <v>531</v>
+      </c>
+      <c r="L102" t="s">
+        <v>532</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>533</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>534</v>
+      </c>
+      <c r="J103" t="s">
+        <v>535</v>
+      </c>
+      <c r="K103" t="s">
+        <v>536</v>
+      </c>
+      <c r="L103" t="s">
+        <v>537</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>538</v>
+      </c>
+      <c r="O103" t="s">
+        <v>77</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>540</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>541</v>
+      </c>
+      <c r="J104" t="s">
+        <v>542</v>
+      </c>
+      <c r="K104" t="s">
+        <v>543</v>
+      </c>
+      <c r="L104" t="s">
+        <v>544</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>545</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>546</v>
+      </c>
+      <c r="J105" t="s">
+        <v>547</v>
+      </c>
+      <c r="K105" t="s">
+        <v>548</v>
+      </c>
+      <c r="L105" t="s">
+        <v>549</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>2</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>42587</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>551</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>552</v>
+      </c>
+      <c r="J106" t="s">
+        <v>553</v>
+      </c>
+      <c r="K106" t="s">
+        <v>554</v>
+      </c>
+      <c r="L106" t="s">
+        <v>555</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
